--- a/AARM/step-cm.xlsx
+++ b/AARM/step-cm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoichi\Documents\LabVIEW Data\MyProject\AARM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2D3A02-E7D8-4CA5-9639-971100A323B0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D03AF8A-C438-4006-BF35-5110D777C1E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="5352" xr2:uid="{217604B7-F2A4-4938-964B-BE94F379542D}"/>
   </bookViews>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C736AA5B-34ED-468D-9E97-05B1B8DC39F1}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -511,6 +511,12 @@
         <v>4</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="B11">
+        <f>10*C3</f>
+        <v>-3134.8039215686276</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
